--- a/biology/Zoologie/Jardin_écologique_(jardin_des_plantes_de_Paris)/Jardin_écologique_(jardin_des_plantes_de_Paris).xlsx
+++ b/biology/Zoologie/Jardin_écologique_(jardin_des_plantes_de_Paris)/Jardin_écologique_(jardin_des_plantes_de_Paris).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_%C3%A9cologique_(jardin_des_plantes_de_Paris)</t>
+          <t>Jardin_écologique_(jardin_des_plantes_de_Paris)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin écologique est une enclave de nature préservée au cœur du Jardin des plantes de Paris, refuge de la flore et de la faune d’Île-de-France. Onze biotopes représentatifs de cette région y ont été aménagés par les spécialistes du Muséum national d'histoire naturelle (qui gère, entre-autres, le Jardin des plantes). Au fil des saisons et du climat on peut y découvrir, y étudier ou bien y contempler leur évolution chronologique et dans les divers types de temps, leur biodiversité végétale et animale, leurs sols et leurs biocénoses. Le jardin écologique abrite une faune importante, sédentaire ou de passage, qui trouve ici une escale abritée pour se restaurer et se reproduire. Fragile, l'endroit n'est accessible qu'en visite guidée sur inscription, afin d'en préserver la tranquillité : l'intervention des jardiniers dans ce sanctuaire écologique est limitée au strict indispensable.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_%C3%A9cologique_(jardin_des_plantes_de_Paris)</t>
+          <t>Jardin_écologique_(jardin_des_plantes_de_Paris)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis les origines du Jardin des plantes et jusqu'en 1932, cet emplacement était une annexe de l'école de botanique voisine. C'est alors que Pierre Allorge, professeur au muséum et titulaire de la chaire de cryptogamie (étude des plantes sans fleurs, dont les organes reproducteurs sont peu visibles, comme les mousses, les sélaginelles ou les prêles), et Camille Guinet, ingénieur horticole au Jardin des plantes, eurent l'idée de créer un « jardin sauvage d'Île-de-France » pour y présenter les milieux à la fois naturels et anthropiques de cette région où l'Homme a joué, depuis plus de 25.000 ans, un rôle considérable dans la formation des paysages et des associations végétales.
-Après 28 ans d'ouverture (et de piétinement), le « jardin sauvage d'Île-de-France », passablement dégradé, a été fermé au public en 1960 et le resta durant 44 ans, flore et faune évoluant sur quatre décennies sans aucune intervention humaine. Pendant cette longue période, des inventaires de biodiversité furent menés, révélant une régénération et un enrichissement progressifs, notamment en champignons, insectes, mollusques, petits mammifères et oiseaux. Depuis 1982 divers projets de rénovation ont été envisagés : à partir de 2000 on modifia quelques sols et on replaça des espèces, sans en supprimer, conformément à leurs regroupements végétaux spontanés (biocénoses), liés à leurs besoins. Ce travail fut mené de manière à déranger le moins possible la faune, et la réouverture (désormais sur rendez-vous et en visite guidée[1]) intervînt en 2004.
+Après 28 ans d'ouverture (et de piétinement), le « jardin sauvage d'Île-de-France », passablement dégradé, a été fermé au public en 1960 et le resta durant 44 ans, flore et faune évoluant sur quatre décennies sans aucune intervention humaine. Pendant cette longue période, des inventaires de biodiversité furent menés, révélant une régénération et un enrichissement progressifs, notamment en champignons, insectes, mollusques, petits mammifères et oiseaux. Depuis 1982 divers projets de rénovation ont été envisagés : à partir de 2000 on modifia quelques sols et on replaça des espèces, sans en supprimer, conformément à leurs regroupements végétaux spontanés (biocénoses), liés à leurs besoins. Ce travail fut mené de manière à déranger le moins possible la faune, et la réouverture (désormais sur rendez-vous et en visite guidée) intervînt en 2004.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_%C3%A9cologique_(jardin_des_plantes_de_Paris)</t>
+          <t>Jardin_écologique_(jardin_des_plantes_de_Paris)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Topographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'une étendue d'un peu plus d'un hectare, le jardin écologique est enclos et bordé par les allées Cuvier qui le sépare de la Ménagerie au nord, Heim qui le sépare de la grande perspective du Jardin des plantes au sud, Jussieu qui le sépare de l'École de botanique à l'ouest et Brogniart qui le sépare du carré homonyme à l'est. Les seules constructions de ce jardin sont le mini-laboratoire où l'on entrepose outils horticoles, d'observation, de mesure et de fabrication des abris à biodiversité, et l'« hôtel à abeilles ».
 			Perspective à l'anglaise : panorama du jardin écologique depuis l'allée Roger Heim
@@ -559,7 +575,7 @@
 produire les céréales ou les raisins selon les principes de l'agriculture biologique, et/ou de la permaculture, avec compostage systématique des déchets verts ;
 appliquer le principe de la résilience écologique, qui n'utilise pas d'engrais chimiques ni de pesticides de synthèse, au profit de la lutte raisonnée et de la restauration puis de l'entretien d'un équilibre écologique ;
 mettre en œuvre les principes du développement durable, incluant des aspects sociaux et de convivialité.
-Ces principes exemplaires sont expliqués lors des visites guidées et enseignés dans le cadre des cours du Muséum[2].
+Ces principes exemplaires sont expliqués lors des visites guidées et enseignés dans le cadre des cours du Muséum.
 Les biotopes typiques du bassin parisien qu'il abrite sont :
 quatre milieux forestiers : une chênaie-frênaie sur sols calcaires, une chênaie-charmaie sur sols frais et riches, une chênaie-châtaigneraie sur sols acides et une ormaie sur sols frais nitratés ;
 sept milieux ouverts : un champ cultivé en céréales selon des méthodes traditionnelles, permettant la floraison des plantes messicoles (coquelicot, bleuet, nielle des blés, chrysanthème des moissons…), une vigne cultivée selon des méthodes traditionnelles avec son cortège de plantes bulbeuses (gagée, ornithogale en ombelle, tulipe sauvage…), une prairie de fauche, une friche montrant les différents stades de la régénération spontanée de la biodiversité à partir d'une prairie de fauche, une mare sur argile à berges humides, une prairie sèche sur calcaire avec coteau calcaire et une lande sur sables acides et dalles de grès (apportées depuis la platière de Fontainebleau) avec des mares temporaires.</t>
